--- a/data/trans_orig/P14C12-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C12-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2042C4C4-3CD1-4793-9DFB-E0073149C6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A64DD44-356E-4451-9E80-2B46CACDB6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{08D75136-1909-4AA8-9580-B53CD32AF154}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{39E77550-21A6-4195-BD5C-F5D6F1F0A90D}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -110,7 +110,7 @@
     <t>34,16%</t>
   </si>
   <si>
-    <t>88,74%</t>
+    <t>76,38%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -119,13 +119,13 @@
     <t>21,02%</t>
   </si>
   <si>
-    <t>56,98%</t>
+    <t>66,25%</t>
   </si>
   <si>
     <t>65,84%</t>
   </si>
   <si>
-    <t>11,26%</t>
+    <t>23,62%</t>
   </si>
   <si>
     <t>63,39%</t>
@@ -134,10 +134,10 @@
     <t>64,9%</t>
   </si>
   <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -149,7 +149,7 @@
     <t>14,08%</t>
   </si>
   <si>
-    <t>54,16%</t>
+    <t>54,84%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -167,7 +167,7 @@
     <t>78,86%</t>
   </si>
   <si>
-    <t>17,14%</t>
+    <t>35,54%</t>
   </si>
   <si>
     <t>72,43%</t>
@@ -176,13 +176,13 @@
     <t>76,17%</t>
   </si>
   <si>
-    <t>36,35%</t>
+    <t>37,25%</t>
   </si>
   <si>
     <t>21,14%</t>
   </si>
   <si>
-    <t>82,86%</t>
+    <t>64,46%</t>
   </si>
   <si>
     <t>27,57%</t>
@@ -191,7 +191,7 @@
     <t>23,83%</t>
   </si>
   <si>
-    <t>63,65%</t>
+    <t>62,75%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -272,7 +272,7 @@
     <t>80,96%</t>
   </si>
   <si>
-    <t>48,11%</t>
+    <t>48,74%</t>
   </si>
   <si>
     <t>29,89%</t>
@@ -284,7 +284,7 @@
     <t>19,04%</t>
   </si>
   <si>
-    <t>51,89%</t>
+    <t>51,26%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -296,10 +296,10 @@
     <t>67,69%</t>
   </si>
   <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
   </si>
   <si>
     <t>61,18%</t>
@@ -314,19 +314,19 @@
     <t>64,94%</t>
   </si>
   <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
   </si>
   <si>
     <t>27,33%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
   </si>
   <si>
     <t>20,76%</t>
@@ -341,16 +341,16 @@
     <t>24,55%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>19,89%</t>
+    <t>23,71%</t>
   </si>
   <si>
     <t>18,07%</t>
@@ -365,10 +365,10 @@
     <t>10,51%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -783,7 +783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612E763F-B580-4EF2-82FF-E6B532610300}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C8542C-D802-4685-A14D-22B109765AE0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C12-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C12-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A64DD44-356E-4451-9E80-2B46CACDB6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DA83558-D026-4550-97A2-DCACDCD59762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{39E77550-21A6-4195-BD5C-F5D6F1F0A90D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F7D457D6-3793-41C1-ACCC-7BE1168D358B}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="112">
-  <si>
-    <t>Población según el tiempo de diagnóstico de angina de pecho en 2015 (Tasa respuesta: 0,65%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="111">
+  <si>
+    <t>Población según el tiempo de diagnóstico de angina de pecho en 2016 (Tasa respuesta: 0,65%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -119,7 +119,7 @@
     <t>21,02%</t>
   </si>
   <si>
-    <t>66,25%</t>
+    <t>57,84%</t>
   </si>
   <si>
     <t>65,84%</t>
@@ -134,10 +134,10 @@
     <t>64,9%</t>
   </si>
   <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -149,7 +149,7 @@
     <t>14,08%</t>
   </si>
   <si>
-    <t>54,84%</t>
+    <t>54,31%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -167,7 +167,7 @@
     <t>78,86%</t>
   </si>
   <si>
-    <t>35,54%</t>
+    <t>25,11%</t>
   </si>
   <si>
     <t>72,43%</t>
@@ -176,13 +176,13 @@
     <t>76,17%</t>
   </si>
   <si>
-    <t>37,25%</t>
+    <t>37,11%</t>
   </si>
   <si>
     <t>21,14%</t>
   </si>
   <si>
-    <t>64,46%</t>
+    <t>74,89%</t>
   </si>
   <si>
     <t>27,57%</t>
@@ -191,7 +191,7 @@
     <t>23,83%</t>
   </si>
   <si>
-    <t>62,75%</t>
+    <t>62,89%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -215,16 +215,13 @@
     <t>72,18%</t>
   </si>
   <si>
-    <t>28,33%</t>
-  </si>
-  <si>
     <t>74,91%</t>
   </si>
   <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
   <si>
     <t>20,66%</t>
@@ -239,7 +236,7 @@
     <t>7,87%</t>
   </si>
   <si>
-    <t>35,17%</t>
+    <t>34,4%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -248,13 +245,13 @@
     <t>27,82%</t>
   </si>
   <si>
-    <t>71,67%</t>
+    <t>69,43%</t>
   </si>
   <si>
     <t>17,22%</t>
   </si>
   <si>
-    <t>46,64%</t>
+    <t>54,38%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -263,7 +260,7 @@
     <t>70,11%</t>
   </si>
   <si>
-    <t>19,33%</t>
+    <t>19,43%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -272,19 +269,19 @@
     <t>80,96%</t>
   </si>
   <si>
-    <t>48,74%</t>
+    <t>46,98%</t>
   </si>
   <si>
     <t>29,89%</t>
   </si>
   <si>
-    <t>80,67%</t>
+    <t>80,57%</t>
   </si>
   <si>
     <t>19,04%</t>
   </si>
   <si>
-    <t>51,26%</t>
+    <t>53,02%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -296,79 +293,79 @@
     <t>67,69%</t>
   </si>
   <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
   </si>
   <si>
     <t>61,18%</t>
   </si>
   <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
   </si>
   <si>
     <t>64,94%</t>
   </si>
   <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
   </si>
   <si>
     <t>27,33%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
   </si>
   <si>
     <t>20,76%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
   </si>
   <si>
     <t>24,55%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>23,71%</t>
+    <t>28,73%</t>
   </si>
   <si>
     <t>18,07%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
   </si>
   <si>
     <t>10,51%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -783,7 +780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C8542C-D802-4685-A14D-22B109765AE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970196BA-061E-41A5-B1EB-E38B82BDA554}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2137,7 +2134,7 @@
         <v>58</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>16</v>
@@ -2149,13 +2146,13 @@
         <v>9994</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,13 +2167,13 @@
         <v>1050</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2191,7 +2188,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -2200,13 +2197,13 @@
         <v>1050</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,7 +2224,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2236,13 +2233,13 @@
         <v>2297</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2251,13 +2248,13 @@
         <v>2297</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,7 +2310,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2325,10 +2322,10 @@
         <v>4069</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>16</v>
@@ -2343,7 +2340,7 @@
         <v>16</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>18</v>
@@ -2355,10 +2352,10 @@
         <v>7375</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>16</v>
@@ -2376,13 +2373,13 @@
         <v>1735</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2406,13 +2403,13 @@
         <v>1735</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,7 +2430,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2463,7 +2460,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,13 +2528,13 @@
         <v>17704</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -2546,13 +2543,13 @@
         <v>11736</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M36" s="7">
         <v>28</v>
@@ -2561,13 +2558,13 @@
         <v>29441</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,13 +2579,13 @@
         <v>7148</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -2597,13 +2594,13 @@
         <v>3982</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M37" s="7">
         <v>11</v>
@@ -2612,13 +2609,13 @@
         <v>11130</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,13 +2630,13 @@
         <v>1301</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -2648,13 +2645,13 @@
         <v>3466</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -2663,13 +2660,13 @@
         <v>4767</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,7 +2722,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
